--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di assenso/dichiarazione del figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
@@ -440,10 +440,16 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
@@ -489,9 +495,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -565,16 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
@@ -4242,1079 +4245,803 @@
         <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
         <v>31</v>
       </c>
     </row>
